--- a/resources/coffee_machine/CONTROLLER/requirements.xlsx
+++ b/resources/coffee_machine/CONTROLLER/requirements.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="91">
   <si>
     <t xml:space="preserve">SRS_ID</t>
   </si>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">CONTROLLER_SRS_27</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Produce_Ok</t>
+    <t xml:space="preserve">T_OK</t>
   </si>
   <si>
     <t xml:space="preserve">T_POS</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">CONTROLLER_SRS_28</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Produce_Cancel</t>
+    <t xml:space="preserve">T_Cancel</t>
   </si>
   <si>
     <t xml:space="preserve">T_Select</t>
@@ -250,9 +250,6 @@
     <t xml:space="preserve">CONTROLLER_SRS_29</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Another_Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">S_Another</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">CONTROLLER_SRS_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Another_No</t>
   </si>
   <si>
     <t xml:space="preserve">T_Stop</t>
@@ -490,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -500,7 +494,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.25"/>
@@ -1706,48 +1700,48 @@
         <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -1756,7 +1750,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>15</v>
@@ -1780,12 +1774,12 @@
         <v>19</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>15</v>
@@ -1797,13 +1791,13 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>74</v>
@@ -1826,28 +1820,28 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>19</v>
@@ -1867,19 +1861,19 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1908,28 +1902,28 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>19</v>
